--- a/Data/Exports/Фактура4.pdf_1-1.xlsx
+++ b/Data/Exports/Фактура4.pdf_1-1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <x:si>
     <x:t>InvoiceNumber</x:t>
   </x:si>
@@ -70,7 +70,7 @@
     <x:t>table</x:t>
   </x:si>
   <x:si>
-    <x:t>0.885157</x:t>
+    <x:t>0.7255707</x:t>
   </x:si>
   <x:si>
     <x:t>Key,Value
@@ -101,20 +101,56 @@
     <x:t>LineTotal - Confidence</x:t>
   </x:si>
   <x:si>
-    <x:t>1321 ds Terms асдад</x:t>
+    <x:t>1321</x:t>
   </x:si>
   <x:si>
     <x:t>0.9166667</x:t>
   </x:si>
   <x:si>
-    <x:t>ден3.00 Subtotal Tax Total Amount Paid Due (MKD)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1 ден3.00 1 ден23.00 190.00 0.00 190.00 0.00 ден190.00</x:t>
+    <x:t>ден3.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1 ден3.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ds</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.8267663</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Subtotal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>190.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amount</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amount Due (MKD)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.7802193</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ден190.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.9018329</x:t>
+  </x:si>
+  <x:si>
+    <x:t>асдад</x:t>
   </x:si>
   <x:si>
     <x:t>Key,Value
 "Value",""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>.00</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -160,7 +196,19 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="4">
+  <x:cellStyleXfs count="8">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -677,12 +725,70 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:8">
+      <x:c r="A3" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:8">
+      <x:c r="E4" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:8">
+      <x:c r="E5" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:8">
+      <x:c r="E6" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:8">
+      <x:c r="A7" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
     </x:row>
@@ -740,15 +846,73 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E2" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G2" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:8">
+      <x:c r="A3" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="F2" s="0" t="s">
+      <x:c r="B3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:8">
+      <x:c r="E4" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="G2" s="1" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="H2" s="0" t="s">
+      <x:c r="G4" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:8">
+      <x:c r="E5" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:8">
+      <x:c r="E6" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G6" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:8">
+      <x:c r="A7" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
     </x:row>

--- a/Data/Exports/Фактура4.pdf_1-1.xlsx
+++ b/Data/Exports/Фактура4.pdf_1-1.xlsx
@@ -196,7 +196,19 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="8">
+  <x:cellStyleXfs count="12">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/Data/Exports/Фактура4.pdf_1-1.xlsx
+++ b/Data/Exports/Фактура4.pdf_1-1.xlsx
@@ -196,7 +196,19 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="20">
+  <x:cellStyleXfs count="24">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -718,7 +730,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H7"/>
+  <x:dimension ref="A1:H2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -842,7 +854,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H7"/>
+  <x:dimension ref="A1:H2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>

--- a/Data/Exports/Фактура4.pdf_1-1.xlsx
+++ b/Data/Exports/Фактура4.pdf_1-1.xlsx
@@ -196,7 +196,31 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="16">
+  <x:cellStyleXfs count="24">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -706,7 +730,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H7"/>
+  <x:dimension ref="A1:H2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -830,7 +854,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H7"/>
+  <x:dimension ref="A1:H2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>

--- a/Data/Exports/Фактура4.pdf_1-1.xlsx
+++ b/Data/Exports/Фактура4.pdf_1-1.xlsx
@@ -196,7 +196,67 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="4">
+  <x:cellStyleXfs count="24">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -670,7 +730,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H7"/>
+  <x:dimension ref="A1:H2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -794,7 +854,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H7"/>
+  <x:dimension ref="A1:H2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>

--- a/Data/Exports/Фактура4.pdf_1-1.xlsx
+++ b/Data/Exports/Фактура4.pdf_1-1.xlsx
@@ -196,7 +196,43 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="12">
+  <x:cellStyleXfs count="24">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/Data/Exports/Фактура4.pdf_1-1.xlsx
+++ b/Data/Exports/Фактура4.pdf_1-1.xlsx
@@ -196,79 +196,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="48">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+  <x:cellStyleXfs count="24">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -802,7 +730,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H7"/>
+  <x:dimension ref="A1:H2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -926,7 +854,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H7"/>
+  <x:dimension ref="A1:H2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>

--- a/Data/Exports/Фактура4.pdf_1-1.xlsx
+++ b/Data/Exports/Фактура4.pdf_1-1.xlsx
@@ -196,67 +196,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="24">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+  <x:cellStyleXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -730,7 +670,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H2"/>
+  <x:dimension ref="A1:H7"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -854,7 +794,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H2"/>
+  <x:dimension ref="A1:H7"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>

--- a/Data/Exports/Фактура4.pdf_1-1.xlsx
+++ b/Data/Exports/Фактура4.pdf_1-1.xlsx
@@ -196,7 +196,43 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="4">
+  <x:cellStyleXfs count="16">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/Data/Exports/Фактура4.pdf_1-1.xlsx
+++ b/Data/Exports/Фактура4.pdf_1-1.xlsx
@@ -196,7 +196,19 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="16">
+  <x:cellStyleXfs count="20">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/Data/Exports/Фактура4.pdf_1-1.xlsx
+++ b/Data/Exports/Фактура4.pdf_1-1.xlsx
@@ -196,7 +196,19 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="20">
+  <x:cellStyleXfs count="24">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/Data/Exports/Фактура4.pdf_1-1.xlsx
+++ b/Data/Exports/Фактура4.pdf_1-1.xlsx
@@ -196,7 +196,19 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="24">
+  <x:cellStyleXfs count="28">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/Data/Exports/Фактура4.pdf_1-1.xlsx
+++ b/Data/Exports/Фактура4.pdf_1-1.xlsx
@@ -196,7 +196,19 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="28">
+  <x:cellStyleXfs count="32">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/Data/Exports/Фактура4.pdf_1-1.xlsx
+++ b/Data/Exports/Фактура4.pdf_1-1.xlsx
@@ -196,7 +196,19 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="32">
+  <x:cellStyleXfs count="36">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/Data/Exports/Фактура4.pdf_1-1.xlsx
+++ b/Data/Exports/Фактура4.pdf_1-1.xlsx
@@ -196,7 +196,43 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="36">
+  <x:cellStyleXfs count="48">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
